--- a/addUrl.xlsx
+++ b/addUrl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bogdanbunea/Documents/GitHub/car-and-driver/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC4D982-BEFF-7C47-8B3F-675B5C3CCE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81D907A-C77C-2C42-95B5-9C3ED293B52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="860" windowWidth="27640" windowHeight="16940" xr2:uid="{50C4C8F3-30A1-A048-9C6D-05609C1336FF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>trim_value</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>https://www.caranddriver.com/gmc/sierra-2500hd-3500hd/specs/2017/gmc_sierra-2500hd_gmc-sierra-2500hd_2017/387482</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -646,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95410304-725A-6A46-AA34-7103FE8B74BA}">
-  <dimension ref="A1:D241"/>
+  <dimension ref="A1:E242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="G220" sqref="G220"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E243" sqref="E243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2916,7 +2919,7 @@
         <v>https://www.caranddriver.com/gmc/sierra-2500hd-3500hd/specs/2017/gmc_sierra-2500hd_gmc-sierra-2500hd_2017/387510</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241">
         <f>A240+1</f>
         <v>387511</v>
@@ -2924,6 +2927,11 @@
       <c r="B241" t="str">
         <f t="shared" si="12"/>
         <v>https://www.caranddriver.com/gmc/sierra-2500hd-3500hd/specs/2017/gmc_sierra-2500hd_gmc-sierra-2500hd_2017/387511</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E242" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
